--- a/IWA Charts New Brewery.xlsx
+++ b/IWA Charts New Brewery.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Semester 3/Strategy and Performance Management/SPM Project Harvard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{86850387-C610-473E-9356-8EF4DE386ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5868AF63-02AC-4A38-93A1-36153691F9C9}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{86850387-C610-473E-9356-8EF4DE386ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E89387F-CFFB-4EFB-A2CF-301D9AB70173}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cum. Brewery 0%" sheetId="9" r:id="rId1"/>
-    <sheet name="Cum. Molson 0%" sheetId="13" r:id="rId2"/>
-    <sheet name="2019 Molson 0%" sheetId="14" r:id="rId3"/>
-    <sheet name="Brewery 3%" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId2"/>
+    <sheet name="Cum. Molson 0%" sheetId="13" r:id="rId3"/>
+    <sheet name="2019 Molson 0%" sheetId="14" r:id="rId4"/>
+    <sheet name="Brewery 3%" sheetId="10" r:id="rId5"/>
+    <sheet name="Cum. Molson 3%" sheetId="15" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brewery 3%'!$A$1:$Z$98</definedName>
     <definedName name="Discount_Rate">'[1]Generalized Entry Sheet'!$E$6</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="55">
   <si>
     <t>Company Name</t>
   </si>
@@ -384,7 +387,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Molson SDG Cost vs Sub-Industry</a:t>
+              <a:t>Molson 0% SDG Cost vs Sub-Industry</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1244,6 +1247,451 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Molson 3% SDG Cost vs Sub-Industry</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cum. Molson 3%'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Molson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Cum. Molson 3%'!$I$13:$K$13,'Cum. Molson 3%'!$N$13:$O$13,'Cum. Molson 3%'!$Q$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v> SDG 1.5 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> SDG 2.1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> SDG 2.2 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> SDG 3.3 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> SDG 3.4 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> SDG 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Cum. Molson 3%'!$I$14:$K$14,'Cum. Molson 3%'!$N$14:$O$14,'Cum. Molson 3%'!$Q$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.12658964096778075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.255484127015901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2473880259856719E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3432670055138896E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.9863869822609E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69675085747108034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01D6-4B4E-9003-EB8189A0E83A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cum. Molson 3%'!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Cum. Molson 3%'!$I$13:$K$13,'Cum. Molson 3%'!$N$13:$O$13,'Cum. Molson 3%'!$Q$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v> SDG 1.5 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> SDG 2.1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> SDG 2.2 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> SDG 3.3 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> SDG 3.4 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> SDG 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Cum. Molson 3%'!$I$15:$K$15,'Cum. Molson 3%'!$N$15:$O$15,'Cum. Molson 3%'!$Q$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28046335683669987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17572376557997726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17554683792339154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8494562635925355E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2948283354423966E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33913883692910896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01D6-4B4E-9003-EB8189A0E83A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="124111264"/>
+        <c:axId val="558702367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124111264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558702367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="558702367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124111264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1285,6 +1733,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2330,6 +2818,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2375,16 +3366,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>807720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2396,6 +3387,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B55051-256B-4082-B950-8DE87CAFF2CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2804,7 +3838,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:B1048576 F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10880,11 +11914,1109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A7C355-ED2B-4AAA-BD17-D04C861DAD3A}">
+  <dimension ref="A1:C98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11">
+        <v>-0.15946035309255985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="11">
+        <v>-7.0196124151552491E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="11">
+        <v>-6.5962333964923375E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11">
+        <v>-6.4156530329437106E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="11">
+        <v>-3.3887361079148678E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="11">
+        <v>-2.4145626951808559E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11">
+        <v>-1.898777707281523E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="11">
+        <v>-1.7950212641086802E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11">
+        <v>-1.7098474042632251E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11">
+        <v>-1.6274821981877376E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11">
+        <v>-1.5842602937756169E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-0.57509599791116095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-0.12537941607448141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11">
+        <v>-6.0311121993674437E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2018</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-4.4480543352151465E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="11">
+        <v>-4.2375164518231243E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11">
+        <v>-2.76532599672447E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="11">
+        <v>-2.0153591844104354E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="11">
+        <v>-1.9998003455680362E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="11">
+        <v>-1.7492717014488519E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="11">
+        <v>-1.5360463819552942E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2017</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="11">
+        <v>-0.4983325026552573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="11">
+        <v>-0.13982710002285553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="11">
+        <v>-5.3127509079985896E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2017</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="11">
+        <v>-4.381103283206339E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="11">
+        <v>-4.0661677298982575E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2017</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="11">
+        <v>-2.5940106609761204E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="11">
+        <v>-1.9130327595798895E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="11">
+        <v>-1.8974907716112689E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="11">
+        <v>-1.8959349623528687E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="11">
+        <v>-1.540024303849845E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="11">
+        <v>-1.1214072929868155E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2016</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="11">
+        <v>-0.168862439654973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2016</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="11">
+        <v>-4.8059517263424813E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="11">
+        <v>-3.6870195045304713E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2016</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="11">
+        <v>-3.174882158857445E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="11">
+        <v>-2.3814801409782281E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="11">
+        <v>-2.3759521814017977E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2016</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="11">
+        <v>-2.3549836702377515E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2016</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="11">
+        <v>-2.0354394842760328E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="11">
+        <v>-1.7560024292985303E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="11">
+        <v>-1.4057085162508446E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="11">
+        <v>-4.6925394540199207E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="11">
+        <v>-4.3204020473055181E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="11">
+        <v>-3.8418435964608401E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="11">
+        <v>-2.9775131301948324E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="11">
+        <v>-2.0951932599897149E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="11">
+        <v>-2.0015746302101036E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="11">
+        <v>-1.9625001368023302E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="11">
+        <v>-1.9625001368023302E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="11">
+        <v>-1.8703917937373735E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="11">
+        <v>-1.3250036137713856E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="11">
+        <v>-5.5523576241229888E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="11">
+        <v>-3.6237658612446981E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="11">
+        <v>-2.8178956913610147E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="11">
+        <v>-2.540335959564265E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="11">
+        <v>-2.2851894306656153E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="11">
+        <v>-2.2851870097977879E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="11">
+        <v>-2.0308436059945589E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="11">
+        <v>-1.9499666550507194E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="11">
+        <v>-1.3421496981780802E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="11">
+        <v>-5.5095697958934507E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="11">
+        <v>-5.237692631453171E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="11">
+        <v>-3.9152107289550424E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="11">
+        <v>-2.8351983589453403E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="11">
+        <v>-2.2565369863680167E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="11">
+        <v>-2.0819486729793342E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="11">
+        <v>-2.079499744171882E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="11">
+        <v>-1.9933127056627746E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="11">
+        <v>-1.7356092552502388E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="11">
+        <v>-1.69760134558921E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="11">
+        <v>-5.7879871390328887E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="11">
+        <v>-4.3424707001567801E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="11">
+        <v>-3.5842760012037324E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="11">
+        <v>-2.4338687233289736E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="11">
+        <v>-2.3767362531367166E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="11">
+        <v>-2.3264110779216224E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="11">
+        <v>-1.5126340675444947E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="11">
+        <v>-1.442620216092072E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="11">
+        <v>-8.1432339083250746E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="11">
+        <v>-5.1087261871189324E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="11">
+        <v>-3.884248795161669E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="11">
+        <v>-2.6397974923249301E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="11">
+        <v>-2.6031743828527815E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="11">
+        <v>-2.5598213781578293E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="11">
+        <v>-1.3224877221828238E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="11">
+        <v>-1.253945825705125E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="11">
+        <v>-1.0659333036412528E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="11">
+        <v>-7.5024724464530013E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="11">
+        <v>-5.2787354768866805E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="11">
+        <v>-4.5484080030190388E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="11">
+        <v>-3.0259531224164051E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="11">
+        <v>-2.6705259826200988E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="11">
+        <v>-2.3216836780943544E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="11">
+        <v>-1.9709578465139758E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="11">
+        <v>-1.3088370785621094E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="11">
+        <v>-1.1799942163953765E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37B9A4F-D01F-4B4C-9672-26F151F231E0}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12072,12 +14204,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8AC204-644A-48B7-ACD5-1553ABE6221E}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13551,12 +15683,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B349C285-18DB-4734-AA63-E0F903BF548B}">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="E64" workbookViewId="0">
+      <selection activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21420,18 +23552,1410 @@
         <v>1.1921585392876268E-2</v>
       </c>
     </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I99" s="12">
+        <f>(SUM(I2:I98))</f>
+        <v>-6061455131.4997339</v>
+      </c>
+      <c r="J99" s="12">
+        <f t="shared" ref="J99:Y99" si="0">(SUM(J2:J98))</f>
+        <v>-3797792811.9194183</v>
+      </c>
+      <c r="K99" s="12">
+        <f t="shared" si="0"/>
+        <v>-3793969000.2671165</v>
+      </c>
+      <c r="L99" s="12">
+        <f t="shared" si="0"/>
+        <v>-46485179.840527378</v>
+      </c>
+      <c r="M99" s="12">
+        <f t="shared" si="0"/>
+        <v>-46513530.606829666</v>
+      </c>
+      <c r="N99" s="12">
+        <f t="shared" si="0"/>
+        <v>-615832723.59510374</v>
+      </c>
+      <c r="O99" s="12">
+        <f t="shared" si="0"/>
+        <v>92821071.338511676</v>
+      </c>
+      <c r="P99" s="12">
+        <f t="shared" si="0"/>
+        <v>-1226916.4780104139</v>
+      </c>
+      <c r="Q99" s="12">
+        <f t="shared" si="0"/>
+        <v>-7329566566.4863243</v>
+      </c>
+      <c r="R99" s="12">
+        <f t="shared" si="0"/>
+        <v>-12293522.308852561</v>
+      </c>
+      <c r="S99" s="12">
+        <f t="shared" si="0"/>
+        <v>-100520.06650837528</v>
+      </c>
+      <c r="T99" s="12">
+        <f t="shared" si="0"/>
+        <v>-7914.2241581427643</v>
+      </c>
+      <c r="U99" s="12">
+        <f t="shared" si="0"/>
+        <v>-1791455.1962933799</v>
+      </c>
+      <c r="V99" s="12">
+        <f t="shared" si="0"/>
+        <v>-119812.83851248621</v>
+      </c>
+      <c r="W99" s="12">
+        <f t="shared" si="0"/>
+        <v>1449931.5019324592</v>
+      </c>
+      <c r="X99" s="12">
+        <f t="shared" si="0"/>
+        <v>1171802.8769254377</v>
+      </c>
+      <c r="Y99" s="12">
+        <f t="shared" si="0"/>
+        <v>-576754.7433121592</v>
+      </c>
+      <c r="Z99" s="12">
+        <f>SUM(I99:Y99)</f>
+        <v>-21612289034.353333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P100" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q100" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R100" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T100" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U100" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V100" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W100" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X100" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y100" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z100" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I101" s="11">
+        <f>I99/$Z$99</f>
+        <v>0.28046335683669987</v>
+      </c>
+      <c r="J101" s="11">
+        <f t="shared" ref="J101:Z101" si="1">J99/$Z$99</f>
+        <v>0.17572376557997726</v>
+      </c>
+      <c r="K101" s="11">
+        <f t="shared" si="1"/>
+        <v>0.17554683792339154</v>
+      </c>
+      <c r="L101" s="11">
+        <f t="shared" si="1"/>
+        <v>2.1508679514066231E-3</v>
+      </c>
+      <c r="M101" s="11">
+        <f t="shared" si="1"/>
+        <v>2.1521797405584906E-3</v>
+      </c>
+      <c r="N101" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8494562635925355E-2</v>
+      </c>
+      <c r="O101" s="11">
+        <f t="shared" si="1"/>
+        <v>-4.2948283354423966E-3</v>
+      </c>
+      <c r="P101" s="11">
+        <f t="shared" si="1"/>
+        <v>5.6769390602735145E-5</v>
+      </c>
+      <c r="Q101" s="11">
+        <f t="shared" si="1"/>
+        <v>0.33913883692910896</v>
+      </c>
+      <c r="R101" s="11">
+        <f t="shared" si="1"/>
+        <v>5.6882092819097812E-4</v>
+      </c>
+      <c r="S101" s="11">
+        <f t="shared" si="1"/>
+        <v>4.6510606233608964E-6</v>
+      </c>
+      <c r="T101" s="11">
+        <f t="shared" si="1"/>
+        <v>3.6619092709536162E-7</v>
+      </c>
+      <c r="U101" s="11">
+        <f t="shared" si="1"/>
+        <v>8.2890581069215396E-5</v>
+      </c>
+      <c r="V101" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5437366362276751E-6</v>
+      </c>
+      <c r="W101" s="11">
+        <f t="shared" si="1"/>
+        <v>-6.708828942773035E-5</v>
+      </c>
+      <c r="X101" s="11">
+        <f t="shared" si="1"/>
+        <v>-5.4219285845327379E-5</v>
+      </c>
+      <c r="Y101" s="11">
+        <f t="shared" si="1"/>
+        <v>2.6686425597741709E-5</v>
+      </c>
+      <c r="Z101" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:Z98" xr:uid="{B349C285-18DB-4734-AA63-E0F903BF548B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE030FD-893E-4D76-838A-A3F8F3FBE3FB}">
+  <dimension ref="A1:Z15"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11">
+        <v>-4.806890504842725E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>-0.3390267827128875</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-508540174.06933123</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-47290361.318650551</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-29919121.195286602</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-29894853.41834509</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-362152.76344693667</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-362152.76344693667</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-4856361.640629312</v>
+      </c>
+      <c r="O2" s="1">
+        <v>969367.11972938268</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-10362.284654262417</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-396748197.89720035</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-77571.7927975864</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-1080.7848150497205</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-117.83558434891822</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-13512.921278734708</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-1288.219367637508</v>
+      </c>
+      <c r="W2" s="1">
+        <v>16032.014248681868</v>
+      </c>
+      <c r="X2" s="1">
+        <v>16032.014248681868</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>-4470.3820545990666</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>5.9201829595912289E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="11">
+        <v>-2.5744220491235089E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>-0.20902816420567355</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-277254957.00240541</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-50380097.797346227</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-31759030.274272043</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-31733754.101057921</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-385299.43024213851</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-385299.43024213851</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-5153491.3071937785</v>
+      </c>
+      <c r="O3" s="1">
+        <v>986794.72679334879</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-10548.581281787676</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-158366286.379195</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-78966.404494856659</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1100.21552679353</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-119.95407198934814</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-14327.963150625341</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-1311.3794073112754</v>
+      </c>
+      <c r="W3" s="1">
+        <v>16320.243175662536</v>
+      </c>
+      <c r="X3" s="1">
+        <v>16320.243175662536</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-4758.9980674913477</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>8.3980336167579883E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="11">
+        <v>-2.5079070829860703E-2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-0.15983549613461037</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-275940000.52679133</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-51459167.913326941</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-32439843.757678077</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-32414023.289713904</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-393554.59644448687</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-393554.59644448687</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-5263973.60631679</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1008162.3291451739</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-10776.995443401189</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-154503856.55926624</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-80676.306954390966</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1124.039091350083</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-122.55150268203089</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-14635.190359925029</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-1339.7754180995116</v>
+      </c>
+      <c r="W4" s="1">
+        <v>16673.634268048929</v>
+      </c>
+      <c r="X4" s="1">
+        <v>16673.634268048929</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-4860.9465118859489</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>8.5090295215415904E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-1.5817158880766267E-2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>-0.15905068162318486</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-77266821.132543206</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-9910008.4221017882</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-6881463.8234391622</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-6873304.8675321881</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-78632.658652376194</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-78632.658652376194</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1125055.5450641864</v>
+      </c>
+      <c r="O5" s="1">
+        <v>447601.79026013112</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-4784.747767933145</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-52736230.708559424</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-35818.497061856971</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-499.04851140120286</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-54.410158378023866</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-3192.9398840758909</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-594.83067195769388</v>
+      </c>
+      <c r="W5" s="1">
+        <v>7402.7250699293854</v>
+      </c>
+      <c r="X5" s="1">
+        <v>7402.7250699293854</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-955.21488609987819</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.14058659092878639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11">
+        <v>-2.5949579337654263E-2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>-0.24349059517906782</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-92575124.287081584</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-11171634.860832138</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-7309223.3062569927</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-7302278.1173657933</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-86634.338098305278</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-86634.338098305278</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-1189593.9265852997</v>
+      </c>
+      <c r="O6" s="1">
+        <v>325423.98822262161</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-3478.6985556406516</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-65730560.506447531</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-26041.446704749629</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-362.82776438932206</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-39.558310812185603</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-3334.7012324946122</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-432.4651370878492</v>
+      </c>
+      <c r="W6" s="1">
+        <v>5382.0703321404435</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5382.0703321404435</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-1063.3245789438492</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>9.4867062427690066E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="11">
+        <v>-2.2762941610412896E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>-0.19753450146348886</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-94381984.799254984</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-13995761.284603303</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-9011788.9790694136</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-9003817.4488208685</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-107884.51358300322</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-107884.51358300322</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1464836.106377827</v>
+      </c>
+      <c r="O7" s="1">
+        <v>349675.85691292334</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-3737.9447809890644</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-61013217.235575162</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-27982.157189672602</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-389.86710880650804</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-42.506350889584539</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-4091.9749249628858</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-464.69413094620353</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5783.1632684354454</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5783.1632684354454</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-1327.7566059492772</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>9.3263999345069445E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="11">
+        <v>-2.4967015245161719E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>-0.22730251693219633</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-105013762.82267471</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-14918497.738564281</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-9493770.6453853473</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-9485837.1037241574</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-114494.695084598</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-114494.695084598</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-1541724.6040359274</v>
+      </c>
+      <c r="O8" s="1">
+        <v>327905.23358107754</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-3505.222428978308</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-69647400.901437223</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-26240.00372913052</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-365.59420060451026</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-39.859929250418119</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-4295.5252828151533</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-435.76253418495338</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5423.1067569702345</v>
+      </c>
+      <c r="X8" s="1">
+        <v>5423.1067569702345</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-1411.9183486342781</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>8.1540157883395956E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="11">
+        <v>-2.6418232198037975E-2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>-0.21298272211530614</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-103467006.40361573</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-9298060.5512443613</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-6196782.0769160595</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-6190432.0130520919</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-72613.097760503195</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-72613.097760503195</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-1009989.8140499466</v>
+      </c>
+      <c r="O9" s="1">
+        <v>316156.82368939149</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-3379.634955404219</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-80919908.810944185</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-25299.859175771402</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-352.49544497985164</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-38.431800818391324</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-2842.3927903604563</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-420.14974017390909</v>
+      </c>
+      <c r="W9" s="1">
+        <v>5228.8040300163348</v>
+      </c>
+      <c r="X9" s="1">
+        <v>5228.8040300163348</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-888.40972999409416</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>9.0688497196191348E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11">
+        <v>-2.7892764714398E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>-0.21230264755663356</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-98062598.751395404</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-9689575.033138318</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-6426604.7380838972</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-6420143.5794159677</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-75531.236931923879</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-75531.236931923879</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-1047057.6108324905</v>
+      </c>
+      <c r="O10" s="1">
+        <v>317038.13891203399</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-3389.055987974119</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-74622238.844591811</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-25370.38478000203</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-353.47805733642775</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-38.538932876145381</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-2943.7096497033913</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-421.32094488644287</v>
+      </c>
+      <c r="W10" s="1">
+        <v>5243.3797855989424</v>
+      </c>
+      <c r="X10" s="1">
+        <v>5243.3797855989424</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>-924.88159953935599</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>9.3071676791426833E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="11">
+        <v>-3.973304104535251E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-0.29863096715472331</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-129307208.7779952</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-4913684.6807350246</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-6008286.2642499935</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-5984833.23331038</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-46408.017310956689</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-46408.017310956689</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-1013723.4138302527</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1975129.001183457</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-3048.8216888694815</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-113254478.53339699</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-22823.399686138517</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-659.95693203883536</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-34.69355376182456</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-5894.9395679607906</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-786.62217475728221</v>
+      </c>
+      <c r="W11" s="1">
+        <v>9770.8441535541133</v>
+      </c>
+      <c r="X11" s="1">
+        <v>9770.8441535541133</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>-808.87373770223383</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1.0385123685818093E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f>SUM(I2:I11)</f>
+        <v>-223026849.6005429</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:Y12" si="0">SUM(J2:J11)</f>
+        <v>-145445915.06063756</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>-145303277.17233837</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>-1723205.3475552283</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>-1723205.3475552283</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>-23665807.574915811</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>7023255.0084295422</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>-57011.987545240263</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>-1227542376.3766139</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>-426790.25257415557</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>-6288.307452749993</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>-648.34019580687072</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>-69072.258121658262</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>-7495.2195270426291</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>93259.985089038237</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>93259.985089038237</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>-21470.706120839328</v>
+      </c>
+      <c r="Z12">
+        <f>SUM(I12:Y12)</f>
+        <v>-1761809638.5730889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="11">
+        <f>I12/$Z$12</f>
+        <v>0.12658964096778075</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" ref="J14:Y14" si="1">J12/$Z$12</f>
+        <v>8.255484127015901E-2</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>8.2473880259856719E-2</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>9.7808827345891546E-4</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="1"/>
+        <v>9.7808827345891546E-4</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3432670055138896E-2</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.9863869822609E-3</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2359902169348422E-5</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.69675085747108034</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4224538408123265E-4</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="1"/>
+        <v>3.5692320640514656E-6</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="1"/>
+        <v>3.67996735635962E-7</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="1"/>
+        <v>3.9205290179704506E-5</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="1"/>
+        <v>4.2542731989553079E-6</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="1"/>
+        <v>-5.2934200748595425E-5</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="1"/>
+        <v>-5.2934200748595425E-5</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2186734395566546E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="13">
+        <f>'Brewery 3%'!I101</f>
+        <v>0.28046335683669987</v>
+      </c>
+      <c r="J15" s="13">
+        <f>'Brewery 3%'!J101</f>
+        <v>0.17572376557997726</v>
+      </c>
+      <c r="K15" s="13">
+        <f>'Brewery 3%'!K101</f>
+        <v>0.17554683792339154</v>
+      </c>
+      <c r="L15" s="13">
+        <f>'Brewery 3%'!L101</f>
+        <v>2.1508679514066231E-3</v>
+      </c>
+      <c r="M15" s="13">
+        <f>'Brewery 3%'!M101</f>
+        <v>2.1521797405584906E-3</v>
+      </c>
+      <c r="N15" s="13">
+        <f>'Brewery 3%'!N101</f>
+        <v>2.8494562635925355E-2</v>
+      </c>
+      <c r="O15" s="13">
+        <f>'Brewery 3%'!O101</f>
+        <v>-4.2948283354423966E-3</v>
+      </c>
+      <c r="P15" s="13">
+        <f>'Brewery 3%'!P101</f>
+        <v>5.6769390602735145E-5</v>
+      </c>
+      <c r="Q15" s="13">
+        <f>'Brewery 3%'!Q101</f>
+        <v>0.33913883692910896</v>
+      </c>
+      <c r="R15" s="13">
+        <f>'Brewery 3%'!R101</f>
+        <v>5.6882092819097812E-4</v>
+      </c>
+      <c r="S15" s="13">
+        <f>'Brewery 3%'!S101</f>
+        <v>4.6510606233608964E-6</v>
+      </c>
+      <c r="T15" s="13">
+        <f>'Brewery 3%'!T101</f>
+        <v>3.6619092709536162E-7</v>
+      </c>
+      <c r="U15" s="13">
+        <f>'Brewery 3%'!U101</f>
+        <v>8.2890581069215396E-5</v>
+      </c>
+      <c r="V15" s="13">
+        <f>'Brewery 3%'!V101</f>
+        <v>5.5437366362276751E-6</v>
+      </c>
+      <c r="W15" s="13">
+        <f>'Brewery 3%'!W101</f>
+        <v>-6.708828942773035E-5</v>
+      </c>
+      <c r="X15" s="13">
+        <f>'Brewery 3%'!X101</f>
+        <v>-5.4219285845327379E-5</v>
+      </c>
+      <c r="Y15" s="13">
+        <f>'Brewery 3%'!Y101</f>
+        <v>2.6686425597741709E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002645C3B902415B4A832A38E2D536BCBF" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f46c813ed8eba6d99d2d6607137ae0a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53749597-08b2-480a-9987-8dc99663f934" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a6305a350d626ca94428547b882ca6a" ns2:_="">
     <xsd:import namespace="53749597-08b2-480a-9987-8dc99663f934"/>
@@ -21601,6 +25125,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21611,15 +25141,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBAFBAF-5AA5-4A09-9766-5B2E6A7C7A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610FB421-9E96-4F73-97F1-36D9CECE9EF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21637,6 +25158,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBAFBAF-5AA5-4A09-9766-5B2E6A7C7A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28544A90-A9E1-4D3E-9A7C-46C02AE71BE1}">
   <ds:schemaRefs>
